--- a/assignmentOnePartOne/function.xlsx
+++ b/assignmentOnePartOne/function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Advanced Algorithms\assignmentOnePartOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81412A8E-EB13-4F0E-A5F1-9EB47385A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDADFDB-D972-4B7A-960F-4A213BB6ECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,301 +535,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5466</c:v>
+                  <c:v>4561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7947</c:v>
+                  <c:v>7004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11981</c:v>
+                  <c:v>7823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14038</c:v>
+                  <c:v>11035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26508</c:v>
+                  <c:v>11524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35677</c:v>
+                  <c:v>13024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22322</c:v>
+                  <c:v>15675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28386</c:v>
+                  <c:v>18234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41581</c:v>
+                  <c:v>18763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38596</c:v>
+                  <c:v>20072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32485</c:v>
+                  <c:v>23458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30947</c:v>
+                  <c:v>22774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31482</c:v>
+                  <c:v>37737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37273</c:v>
+                  <c:v>40112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41133</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40748</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75158</c:v>
+                  <c:v>48276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70635</c:v>
+                  <c:v>51332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>73616</c:v>
+                  <c:v>54596</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69167</c:v>
+                  <c:v>56086</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67851</c:v>
+                  <c:v>61274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69742</c:v>
+                  <c:v>61506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75796</c:v>
+                  <c:v>66248</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101668</c:v>
+                  <c:v>67128</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96885</c:v>
+                  <c:v>70181</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89534</c:v>
+                  <c:v>73211</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91275</c:v>
+                  <c:v>75580</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88494</c:v>
+                  <c:v>78855</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98058</c:v>
+                  <c:v>82115</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100788</c:v>
+                  <c:v>84053</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>109299</c:v>
+                  <c:v>94140</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110437</c:v>
+                  <c:v>88792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>105814</c:v>
+                  <c:v>92018</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>117188</c:v>
+                  <c:v>95481</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>108917</c:v>
+                  <c:v>97896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>126452</c:v>
+                  <c:v>105177</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>129872</c:v>
+                  <c:v>103137</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>121289</c:v>
+                  <c:v>70044</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>121292</c:v>
+                  <c:v>73901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>136126</c:v>
+                  <c:v>101711</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>133347</c:v>
+                  <c:v>104066</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>139687</c:v>
+                  <c:v>105680</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>166633</c:v>
+                  <c:v>115905</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>138215</c:v>
+                  <c:v>111754</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>173023</c:v>
+                  <c:v>114221</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>158316</c:v>
+                  <c:v>115875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>157410</c:v>
+                  <c:v>118590</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>198904</c:v>
+                  <c:v>125278</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>181131</c:v>
+                  <c:v>124010</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>164950</c:v>
+                  <c:v>140084</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>217185</c:v>
+                  <c:v>129266</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>217441</c:v>
+                  <c:v>143385</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>200519</c:v>
+                  <c:v>142962</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>212459</c:v>
+                  <c:v>139124</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>171211</c:v>
+                  <c:v>140813</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>206334</c:v>
+                  <c:v>142194</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>238205</c:v>
+                  <c:v>153592</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>272314</c:v>
+                  <c:v>149022</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>234467</c:v>
+                  <c:v>157724</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>193593</c:v>
+                  <c:v>154316</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>198603</c:v>
+                  <c:v>156210</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>194988</c:v>
+                  <c:v>161462</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>215484</c:v>
+                  <c:v>165327</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>198486</c:v>
+                  <c:v>165060</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>261662</c:v>
+                  <c:v>171054</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>262199</c:v>
+                  <c:v>171010</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>259508</c:v>
+                  <c:v>173798</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>236578</c:v>
+                  <c:v>178168</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>282613</c:v>
+                  <c:v>176787</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>382321</c:v>
+                  <c:v>185852</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>327767</c:v>
+                  <c:v>188316</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>277139</c:v>
+                  <c:v>190010</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>277169</c:v>
+                  <c:v>200497</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>245647</c:v>
+                  <c:v>203901</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>240530</c:v>
+                  <c:v>200325</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>249382</c:v>
+                  <c:v>199495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>286281</c:v>
+                  <c:v>198216</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>305776</c:v>
+                  <c:v>211543</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>281256</c:v>
+                  <c:v>206805</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>256641</c:v>
+                  <c:v>211124</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>328108</c:v>
+                  <c:v>211709</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>332696</c:v>
+                  <c:v>211524</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>294832</c:v>
+                  <c:v>225095</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>315214</c:v>
+                  <c:v>228356</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>284339</c:v>
+                  <c:v>232488</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>283969</c:v>
+                  <c:v>233139</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>301459</c:v>
+                  <c:v>247326</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>331888</c:v>
+                  <c:v>234135</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>309089</c:v>
+                  <c:v>259774</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>349655</c:v>
+                  <c:v>249949</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>339759</c:v>
+                  <c:v>255454</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>326139</c:v>
+                  <c:v>246548</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>363998</c:v>
+                  <c:v>255914</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>370659</c:v>
+                  <c:v>248574</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>312190</c:v>
+                  <c:v>254776</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>332549</c:v>
+                  <c:v>259731</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>367060</c:v>
+                  <c:v>256626</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>422130</c:v>
+                  <c:v>267873</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>349590</c:v>
+                  <c:v>271827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,301 +1196,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2762</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1085</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1558</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1963</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3205</c:v>
+                  <c:v>1389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3884</c:v>
+                  <c:v>1518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2481</c:v>
+                  <c:v>1691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3162</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4883</c:v>
+                  <c:v>2108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4158</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3573</c:v>
+                  <c:v>2476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3216</c:v>
+                  <c:v>2382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6817</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3919</c:v>
+                  <c:v>3160</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4309</c:v>
+                  <c:v>3457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4408</c:v>
+                  <c:v>3797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6220</c:v>
+                  <c:v>5277</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5649</c:v>
+                  <c:v>4146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5903</c:v>
+                  <c:v>4856</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5582</c:v>
+                  <c:v>4433</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5492</c:v>
+                  <c:v>5076</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5825</c:v>
+                  <c:v>4991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6109</c:v>
+                  <c:v>5417</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8241</c:v>
+                  <c:v>5460</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8023</c:v>
+                  <c:v>5633</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7479</c:v>
+                  <c:v>5973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7575</c:v>
+                  <c:v>6206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7384</c:v>
+                  <c:v>6454</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8133</c:v>
+                  <c:v>6735</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8391</c:v>
+                  <c:v>6813</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9038</c:v>
+                  <c:v>7719</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8786</c:v>
+                  <c:v>7209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>7770</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9697</c:v>
+                  <c:v>7766</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8841</c:v>
+                  <c:v>7931</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10263</c:v>
+                  <c:v>8374</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10508</c:v>
+                  <c:v>8363</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9685</c:v>
+                  <c:v>10319</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9554</c:v>
+                  <c:v>7816</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11726</c:v>
+                  <c:v>8181</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10717</c:v>
+                  <c:v>8388</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11388</c:v>
+                  <c:v>8581</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13454</c:v>
+                  <c:v>9390</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11331</c:v>
+                  <c:v>8976</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14103</c:v>
+                  <c:v>9137</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12683</c:v>
+                  <c:v>9520</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12792</c:v>
+                  <c:v>9650</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16004</c:v>
+                  <c:v>10294</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20122</c:v>
+                  <c:v>9796</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13414</c:v>
+                  <c:v>11713</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17741</c:v>
+                  <c:v>10685</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17907</c:v>
+                  <c:v>11645</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16142</c:v>
+                  <c:v>11738</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17212</c:v>
+                  <c:v>11535</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13736</c:v>
+                  <c:v>11262</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16306</c:v>
+                  <c:v>11382</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19531</c:v>
+                  <c:v>12763</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22157</c:v>
+                  <c:v>11890</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18881</c:v>
+                  <c:v>12616</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15450</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16156</c:v>
+                  <c:v>12732</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15677</c:v>
+                  <c:v>13421</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17262</c:v>
+                  <c:v>13568</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16518</c:v>
+                  <c:v>13333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20800</c:v>
+                  <c:v>13628</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>24035</c:v>
+                  <c:v>14191</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21126</c:v>
+                  <c:v>13751</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18703</c:v>
+                  <c:v>14276</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22651</c:v>
+                  <c:v>14259</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>31703</c:v>
+                  <c:v>14866</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26684</c:v>
+                  <c:v>14995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21961</c:v>
+                  <c:v>15010</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>22674</c:v>
+                  <c:v>16237</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19641</c:v>
+                  <c:v>16723</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19409</c:v>
+                  <c:v>16234</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20356</c:v>
+                  <c:v>16195</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23704</c:v>
+                  <c:v>16584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>24785</c:v>
+                  <c:v>17222</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22672</c:v>
+                  <c:v>17145</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20660</c:v>
+                  <c:v>16977</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27058</c:v>
+                  <c:v>17003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>27154</c:v>
+                  <c:v>16687</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>24369</c:v>
+                  <c:v>18130</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25518</c:v>
+                  <c:v>18851</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22342</c:v>
+                  <c:v>21835</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22772</c:v>
+                  <c:v>18680</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>23986</c:v>
+                  <c:v>20143</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>27050</c:v>
+                  <c:v>18694</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24837</c:v>
+                  <c:v>20142</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>28331</c:v>
+                  <c:v>20313</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27876</c:v>
+                  <c:v>22272</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26024</c:v>
+                  <c:v>19778</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>29229</c:v>
+                  <c:v>21147</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30137</c:v>
+                  <c:v>20236</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>24882</c:v>
+                  <c:v>20538</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26982</c:v>
+                  <c:v>21506</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29197</c:v>
+                  <c:v>20651</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>34484</c:v>
+                  <c:v>21685</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>27918</c:v>
+                  <c:v>22844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,301 +1857,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>14645</c:v>
+                  <c:v>12876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38696</c:v>
+                  <c:v>27131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22765</c:v>
+                  <c:v>15451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27117</c:v>
+                  <c:v>21339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50812</c:v>
+                  <c:v>22147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69425</c:v>
+                  <c:v>25054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42388</c:v>
+                  <c:v>29581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54817</c:v>
+                  <c:v>34870</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92905</c:v>
+                  <c:v>36228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74506</c:v>
+                  <c:v>38511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61966</c:v>
+                  <c:v>45078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59392</c:v>
+                  <c:v>43783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60290</c:v>
+                  <c:v>47491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71820</c:v>
+                  <c:v>49512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78542</c:v>
+                  <c:v>53577</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78318</c:v>
+                  <c:v>57094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105617</c:v>
+                  <c:v>60780</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98580</c:v>
+                  <c:v>64544</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102228</c:v>
+                  <c:v>68817</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96365</c:v>
+                  <c:v>70410</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95391</c:v>
+                  <c:v>77309</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116542</c:v>
+                  <c:v>77008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101600</c:v>
+                  <c:v>83230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>135111</c:v>
+                  <c:v>84252</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>131974</c:v>
+                  <c:v>88205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>120027</c:v>
+                  <c:v>92078</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122396</c:v>
+                  <c:v>94883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>118402</c:v>
+                  <c:v>98957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>132066</c:v>
+                  <c:v>103103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>135102</c:v>
+                  <c:v>105267</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>146725</c:v>
+                  <c:v>118236</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>148013</c:v>
+                  <c:v>111616</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>142113</c:v>
+                  <c:v>115773</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>156621</c:v>
+                  <c:v>119920</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>146254</c:v>
+                  <c:v>122603</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>169309</c:v>
+                  <c:v>132333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>172565</c:v>
+                  <c:v>129461</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>161851</c:v>
+                  <c:v>133599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162653</c:v>
+                  <c:v>141241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>183041</c:v>
+                  <c:v>142055</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>179141</c:v>
+                  <c:v>145020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>187018</c:v>
+                  <c:v>147464</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>222386</c:v>
+                  <c:v>161508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185167</c:v>
+                  <c:v>154956</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>231850</c:v>
+                  <c:v>159669</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>212159</c:v>
+                  <c:v>161538</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>211323</c:v>
+                  <c:v>165836</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>265018</c:v>
+                  <c:v>174847</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>244938</c:v>
+                  <c:v>172905</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>221364</c:v>
+                  <c:v>193265</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>290093</c:v>
+                  <c:v>180477</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>289384</c:v>
+                  <c:v>199082</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266550</c:v>
+                  <c:v>198713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>285395</c:v>
+                  <c:v>193331</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>229148</c:v>
+                  <c:v>196246</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>277085</c:v>
+                  <c:v>197723</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>320288</c:v>
+                  <c:v>209070</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>363592</c:v>
+                  <c:v>207565</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>307568</c:v>
+                  <c:v>219287</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>258306</c:v>
+                  <c:v>214208</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>265292</c:v>
+                  <c:v>218002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>260766</c:v>
+                  <c:v>224701</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>288168</c:v>
+                  <c:v>229494</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>265195</c:v>
+                  <c:v>230537</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>350125</c:v>
+                  <c:v>237231</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>342198</c:v>
+                  <c:v>237986</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>347834</c:v>
+                  <c:v>241171</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>316390</c:v>
+                  <c:v>248316</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>375815</c:v>
+                  <c:v>246865</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>501499</c:v>
+                  <c:v>258463</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>441253</c:v>
+                  <c:v>262085</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>363878</c:v>
+                  <c:v>263206</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>378699</c:v>
+                  <c:v>279940</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>328995</c:v>
+                  <c:v>292510</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>321185</c:v>
+                  <c:v>278794</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>333745</c:v>
+                  <c:v>275940</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>382958</c:v>
+                  <c:v>276997</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>408667</c:v>
+                  <c:v>291978</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>376561</c:v>
+                  <c:v>287622</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>343214</c:v>
+                  <c:v>293090</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>439178</c:v>
+                  <c:v>294111</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>461577</c:v>
+                  <c:v>294464</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>393056</c:v>
+                  <c:v>322399</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>421510</c:v>
+                  <c:v>317336</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>388626</c:v>
+                  <c:v>329046</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>380317</c:v>
+                  <c:v>328800</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>400485</c:v>
+                  <c:v>337257</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>445062</c:v>
+                  <c:v>327454</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>413331</c:v>
+                  <c:v>347560</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>466804</c:v>
+                  <c:v>351726</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>458105</c:v>
+                  <c:v>353640</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>433462</c:v>
+                  <c:v>346210</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>493315</c:v>
+                  <c:v>355160</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>491965</c:v>
+                  <c:v>344489</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>416196</c:v>
+                  <c:v>353112</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>445264</c:v>
+                  <c:v>360080</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>484418</c:v>
+                  <c:v>356933</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>558527</c:v>
+                  <c:v>376740</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>469172</c:v>
+                  <c:v>376510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,301 +2518,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>11969</c:v>
+                  <c:v>10127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18213</c:v>
+                  <c:v>14769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47102</c:v>
+                  <c:v>17370</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29792</c:v>
+                  <c:v>24708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55658</c:v>
+                  <c:v>26335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76272</c:v>
+                  <c:v>29980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47257</c:v>
+                  <c:v>34858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60144</c:v>
+                  <c:v>40777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90046</c:v>
+                  <c:v>43248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82929</c:v>
+                  <c:v>47195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69084</c:v>
+                  <c:v>54184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66704</c:v>
+                  <c:v>53935</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67943</c:v>
+                  <c:v>57501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80569</c:v>
+                  <c:v>60516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87196</c:v>
+                  <c:v>65108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87812</c:v>
+                  <c:v>69534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117834</c:v>
+                  <c:v>74241</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109318</c:v>
+                  <c:v>78273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114260</c:v>
+                  <c:v>83675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>108256</c:v>
+                  <c:v>86239</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>106917</c:v>
+                  <c:v>94782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>108945</c:v>
+                  <c:v>94546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>117374</c:v>
+                  <c:v>101675</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155380</c:v>
+                  <c:v>103313</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>149210</c:v>
+                  <c:v>108206</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139242</c:v>
+                  <c:v>112418</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>142527</c:v>
+                  <c:v>115707</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>137686</c:v>
+                  <c:v>120578</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>154300</c:v>
+                  <c:v>125416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157841</c:v>
+                  <c:v>129342</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>171263</c:v>
+                  <c:v>144437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>171688</c:v>
+                  <c:v>136868</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165164</c:v>
+                  <c:v>141935</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>183135</c:v>
+                  <c:v>146893</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>169900</c:v>
+                  <c:v>150256</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>196513</c:v>
+                  <c:v>161253</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>200715</c:v>
+                  <c:v>157310</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>188141</c:v>
+                  <c:v>163608</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>189460</c:v>
+                  <c:v>171696</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>213792</c:v>
+                  <c:v>173466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209746</c:v>
+                  <c:v>177206</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>217410</c:v>
+                  <c:v>181089</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>258003</c:v>
+                  <c:v>196704</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>215285</c:v>
+                  <c:v>189852</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>269171</c:v>
+                  <c:v>194615</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>246074</c:v>
+                  <c:v>197864</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>246645</c:v>
+                  <c:v>202502</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>302287</c:v>
+                  <c:v>211714</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>278804</c:v>
+                  <c:v>211718</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>258301</c:v>
+                  <c:v>234848</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>323737</c:v>
+                  <c:v>219949</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>333070</c:v>
+                  <c:v>242797</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>308373</c:v>
+                  <c:v>243033</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>332360</c:v>
+                  <c:v>235869</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>266490</c:v>
+                  <c:v>239454</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>319728</c:v>
+                  <c:v>241495</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>357233</c:v>
+                  <c:v>247901</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>418344</c:v>
+                  <c:v>253802</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>353080</c:v>
+                  <c:v>268911</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>301141</c:v>
+                  <c:v>263070</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>309394</c:v>
+                  <c:v>266887</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>303512</c:v>
+                  <c:v>274478</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>337704</c:v>
+                  <c:v>280816</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>309425</c:v>
+                  <c:v>280463</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>390787</c:v>
+                  <c:v>290198</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>396084</c:v>
+                  <c:v>291353</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>404373</c:v>
+                  <c:v>295016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>369007</c:v>
+                  <c:v>303827</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>420743</c:v>
+                  <c:v>301815</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>561715</c:v>
+                  <c:v>316485</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>492677</c:v>
+                  <c:v>319969</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>421832</c:v>
+                  <c:v>319949</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>429106</c:v>
+                  <c:v>342850</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>385281</c:v>
+                  <c:v>346880</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>374929</c:v>
+                  <c:v>340956</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>388234</c:v>
+                  <c:v>337025</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>446857</c:v>
+                  <c:v>338964</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>479135</c:v>
+                  <c:v>352053</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>440497</c:v>
+                  <c:v>351634</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>400739</c:v>
+                  <c:v>358427</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>521351</c:v>
+                  <c:v>360490</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>513334</c:v>
+                  <c:v>360832</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>463329</c:v>
+                  <c:v>384107</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>493673</c:v>
+                  <c:v>386244</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>446454</c:v>
+                  <c:v>393408</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>443093</c:v>
+                  <c:v>402262</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>466796</c:v>
+                  <c:v>404852</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>513222</c:v>
+                  <c:v>397239</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>481075</c:v>
+                  <c:v>426533</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>545151</c:v>
+                  <c:v>433915</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>529903</c:v>
+                  <c:v>430180</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>504279</c:v>
+                  <c:v>416974</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>568830</c:v>
+                  <c:v>436132</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>574501</c:v>
+                  <c:v>422286</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>486187</c:v>
+                  <c:v>431746</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>519194</c:v>
+                  <c:v>433509</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>569586</c:v>
+                  <c:v>437573</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>629324</c:v>
+                  <c:v>451038</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>541197</c:v>
+                  <c:v>456346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,301 +3179,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>15161</c:v>
+                  <c:v>13335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20272</c:v>
+                  <c:v>22573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20822</c:v>
+                  <c:v>13999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22738</c:v>
+                  <c:v>18784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38180</c:v>
+                  <c:v>18300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44709</c:v>
+                  <c:v>19004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31299</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38945</c:v>
+                  <c:v>24885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81534</c:v>
+                  <c:v>26069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47730</c:v>
+                  <c:v>25848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43014</c:v>
+                  <c:v>31906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38965</c:v>
+                  <c:v>29602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42101</c:v>
+                  <c:v>34011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48824</c:v>
+                  <c:v>36201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50893</c:v>
+                  <c:v>37314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51026</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67921</c:v>
+                  <c:v>40112</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63775</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68419</c:v>
+                  <c:v>46678</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62236</c:v>
+                  <c:v>47702</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61257</c:v>
+                  <c:v>64755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80753</c:v>
+                  <c:v>52514</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>77509</c:v>
+                  <c:v>56727</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100531</c:v>
+                  <c:v>56798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>99948</c:v>
+                  <c:v>58736</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90694</c:v>
+                  <c:v>62172</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92600</c:v>
+                  <c:v>85063</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88131</c:v>
+                  <c:v>65660</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97540</c:v>
+                  <c:v>66848</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>124364</c:v>
+                  <c:v>69727</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110448</c:v>
+                  <c:v>77798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110960</c:v>
+                  <c:v>72991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>107289</c:v>
+                  <c:v>78072</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>116296</c:v>
+                  <c:v>78229</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>108438</c:v>
+                  <c:v>80232</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>125202</c:v>
+                  <c:v>84821</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>132406</c:v>
+                  <c:v>82821</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>120482</c:v>
+                  <c:v>87794</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>120397</c:v>
+                  <c:v>90958</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>135251</c:v>
+                  <c:v>89898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>132493</c:v>
+                  <c:v>93702</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>137359</c:v>
+                  <c:v>97091</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>197496</c:v>
+                  <c:v>102670</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>138209</c:v>
+                  <c:v>101357</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>171610</c:v>
+                  <c:v>102729</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>157679</c:v>
+                  <c:v>106160</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>155806</c:v>
+                  <c:v>106911</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>196322</c:v>
+                  <c:v>110975</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>176396</c:v>
+                  <c:v>112499</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>164573</c:v>
+                  <c:v>129893</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>218075</c:v>
+                  <c:v>124163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>214343</c:v>
+                  <c:v>126757</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>194587</c:v>
+                  <c:v>130540</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>213476</c:v>
+                  <c:v>127877</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>169392</c:v>
+                  <c:v>126316</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>205520</c:v>
+                  <c:v>128619</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>235403</c:v>
+                  <c:v>132603</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>268454</c:v>
+                  <c:v>132923</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>225113</c:v>
+                  <c:v>140555</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>191393</c:v>
+                  <c:v>137921</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>195990</c:v>
+                  <c:v>139266</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>191891</c:v>
+                  <c:v>144710</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>212570</c:v>
+                  <c:v>146034</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>195713</c:v>
+                  <c:v>148072</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>252634</c:v>
+                  <c:v>152571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>253479</c:v>
+                  <c:v>153247</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>258393</c:v>
+                  <c:v>154720</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>235471</c:v>
+                  <c:v>159153</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>278942</c:v>
+                  <c:v>158360</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>363101</c:v>
+                  <c:v>166130</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>322679</c:v>
+                  <c:v>168007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>276634</c:v>
+                  <c:v>169446</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>275347</c:v>
+                  <c:v>179127</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>243270</c:v>
+                  <c:v>181473</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>238597</c:v>
+                  <c:v>178094</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>246555</c:v>
+                  <c:v>177503</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>284085</c:v>
+                  <c:v>176574</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>301926</c:v>
+                  <c:v>188277</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>279567</c:v>
+                  <c:v>183764</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>253130</c:v>
+                  <c:v>188044</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>327174</c:v>
+                  <c:v>188544</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>335563</c:v>
+                  <c:v>188247</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>291785</c:v>
+                  <c:v>200390</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>312952</c:v>
+                  <c:v>203808</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>280687</c:v>
+                  <c:v>208872</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>282053</c:v>
+                  <c:v>210154</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>297698</c:v>
+                  <c:v>218844</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>328830</c:v>
+                  <c:v>209021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>307341</c:v>
+                  <c:v>227929</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>347807</c:v>
+                  <c:v>228903</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>337231</c:v>
+                  <c:v>231761</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>320334</c:v>
+                  <c:v>223467</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>363707</c:v>
+                  <c:v>230203</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>370013</c:v>
+                  <c:v>220947</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>306966</c:v>
+                  <c:v>226423</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>331856</c:v>
+                  <c:v>232323</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>361740</c:v>
+                  <c:v>228827</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>415408</c:v>
+                  <c:v>238522</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>345977</c:v>
+                  <c:v>244729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,7 +3486,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5373,7 +5372,7 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,19 +5405,19 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>19400</v>
+        <v>18447</v>
       </c>
       <c r="C2">
-        <v>6073</v>
+        <v>4471</v>
       </c>
       <c r="D2">
-        <v>36072</v>
+        <v>32288</v>
       </c>
       <c r="E2">
-        <v>30157</v>
+        <v>17641</v>
       </c>
       <c r="F2">
-        <v>36409</v>
+        <v>32211</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -5426,19 +5425,19 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>5466</v>
+        <v>4561</v>
       </c>
       <c r="C3">
-        <v>2762</v>
+        <v>2069</v>
       </c>
       <c r="D3">
-        <v>14645</v>
+        <v>12876</v>
       </c>
       <c r="E3">
-        <v>11969</v>
+        <v>10127</v>
       </c>
       <c r="F3">
-        <v>15161</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -5446,19 +5445,19 @@
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>7947</v>
+        <v>7004</v>
       </c>
       <c r="C4">
-        <v>1085</v>
+        <v>908</v>
       </c>
       <c r="D4">
-        <v>38696</v>
+        <v>27131</v>
       </c>
       <c r="E4">
-        <v>18213</v>
+        <v>14769</v>
       </c>
       <c r="F4">
-        <v>20272</v>
+        <v>22573</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -5466,19 +5465,19 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>11981</v>
+        <v>7823</v>
       </c>
       <c r="C5">
-        <v>1558</v>
+        <v>1116</v>
       </c>
       <c r="D5">
-        <v>22765</v>
+        <v>15451</v>
       </c>
       <c r="E5">
-        <v>47102</v>
+        <v>17370</v>
       </c>
       <c r="F5">
-        <v>20822</v>
+        <v>13999</v>
       </c>
       <c r="AC5" t="s">
         <v>6</v>
@@ -5504,19 +5503,19 @@
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>14038</v>
+        <v>11035</v>
       </c>
       <c r="C6">
-        <v>1963</v>
+        <v>1534</v>
       </c>
       <c r="D6">
-        <v>27117</v>
+        <v>21339</v>
       </c>
       <c r="E6">
-        <v>29792</v>
+        <v>24708</v>
       </c>
       <c r="F6">
-        <v>22738</v>
+        <v>18784</v>
       </c>
       <c r="AC6" t="s">
         <v>5</v>
@@ -5542,19 +5541,19 @@
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>26508</v>
+        <v>11524</v>
       </c>
       <c r="C7">
-        <v>3205</v>
+        <v>1389</v>
       </c>
       <c r="D7">
-        <v>50812</v>
+        <v>22147</v>
       </c>
       <c r="E7">
-        <v>55658</v>
+        <v>26335</v>
       </c>
       <c r="F7">
-        <v>38180</v>
+        <v>18300</v>
       </c>
       <c r="AC7" t="s">
         <v>7</v>
@@ -5580,19 +5579,19 @@
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>35677</v>
+        <v>13024</v>
       </c>
       <c r="C8">
-        <v>3884</v>
+        <v>1518</v>
       </c>
       <c r="D8">
-        <v>69425</v>
+        <v>25054</v>
       </c>
       <c r="E8">
-        <v>76272</v>
+        <v>29980</v>
       </c>
       <c r="F8">
-        <v>44709</v>
+        <v>19004</v>
       </c>
       <c r="AC8" t="s">
         <v>8</v>
@@ -5618,19 +5617,19 @@
         <v>8000</v>
       </c>
       <c r="B9">
-        <v>22322</v>
+        <v>15675</v>
       </c>
       <c r="C9">
-        <v>2481</v>
+        <v>1691</v>
       </c>
       <c r="D9">
-        <v>42388</v>
+        <v>29581</v>
       </c>
       <c r="E9">
-        <v>47257</v>
+        <v>34858</v>
       </c>
       <c r="F9">
-        <v>31299</v>
+        <v>21600</v>
       </c>
       <c r="AC9" t="s">
         <v>9</v>
@@ -5656,19 +5655,19 @@
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>28386</v>
+        <v>18234</v>
       </c>
       <c r="C10">
-        <v>3162</v>
+        <v>2045</v>
       </c>
       <c r="D10">
-        <v>54817</v>
+        <v>34870</v>
       </c>
       <c r="E10">
-        <v>60144</v>
+        <v>40777</v>
       </c>
       <c r="F10">
-        <v>38945</v>
+        <v>24885</v>
       </c>
       <c r="AC10" t="s">
         <v>10</v>
@@ -5694,19 +5693,19 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>41581</v>
+        <v>18763</v>
       </c>
       <c r="C11">
-        <v>4883</v>
+        <v>2108</v>
       </c>
       <c r="D11">
-        <v>92905</v>
+        <v>36228</v>
       </c>
       <c r="E11">
-        <v>90046</v>
+        <v>43248</v>
       </c>
       <c r="F11">
-        <v>81534</v>
+        <v>26069</v>
       </c>
       <c r="AC11" t="s">
         <v>11</v>
@@ -5732,19 +5731,19 @@
         <v>11000</v>
       </c>
       <c r="B12">
-        <v>38596</v>
+        <v>20072</v>
       </c>
       <c r="C12">
-        <v>4158</v>
+        <v>2140</v>
       </c>
       <c r="D12">
-        <v>74506</v>
+        <v>38511</v>
       </c>
       <c r="E12">
-        <v>82929</v>
+        <v>47195</v>
       </c>
       <c r="F12">
-        <v>47730</v>
+        <v>25848</v>
       </c>
       <c r="AC12" t="s">
         <v>12</v>
@@ -5770,19 +5769,19 @@
         <v>12000</v>
       </c>
       <c r="B13">
-        <v>32485</v>
+        <v>23458</v>
       </c>
       <c r="C13">
-        <v>3573</v>
+        <v>2476</v>
       </c>
       <c r="D13">
-        <v>61966</v>
+        <v>45078</v>
       </c>
       <c r="E13">
-        <v>69084</v>
+        <v>54184</v>
       </c>
       <c r="F13">
-        <v>43014</v>
+        <v>31906</v>
       </c>
       <c r="AC13" t="s">
         <v>13</v>
@@ -5808,19 +5807,19 @@
         <v>13000</v>
       </c>
       <c r="B14">
-        <v>30947</v>
+        <v>22774</v>
       </c>
       <c r="C14">
-        <v>3216</v>
+        <v>2382</v>
       </c>
       <c r="D14">
-        <v>59392</v>
+        <v>43783</v>
       </c>
       <c r="E14">
-        <v>66704</v>
+        <v>53935</v>
       </c>
       <c r="F14">
-        <v>38965</v>
+        <v>29602</v>
       </c>
       <c r="AC14" t="s">
         <v>14</v>
@@ -5846,19 +5845,19 @@
         <v>14000</v>
       </c>
       <c r="B15">
-        <v>31482</v>
+        <v>37737</v>
       </c>
       <c r="C15">
-        <v>6817</v>
+        <v>3013</v>
       </c>
       <c r="D15">
-        <v>60290</v>
+        <v>47491</v>
       </c>
       <c r="E15">
-        <v>67943</v>
+        <v>57501</v>
       </c>
       <c r="F15">
-        <v>42101</v>
+        <v>34011</v>
       </c>
       <c r="AC15" t="s">
         <v>15</v>
@@ -5884,19 +5883,19 @@
         <v>15000</v>
       </c>
       <c r="B16">
-        <v>37273</v>
+        <v>40112</v>
       </c>
       <c r="C16">
-        <v>3919</v>
+        <v>3160</v>
       </c>
       <c r="D16">
-        <v>71820</v>
+        <v>49512</v>
       </c>
       <c r="E16">
-        <v>80569</v>
+        <v>60516</v>
       </c>
       <c r="F16">
-        <v>48824</v>
+        <v>36201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5904,19 +5903,19 @@
         <v>16000</v>
       </c>
       <c r="B17">
-        <v>41133</v>
+        <v>42641</v>
       </c>
       <c r="C17">
-        <v>4309</v>
+        <v>3457</v>
       </c>
       <c r="D17">
-        <v>78542</v>
+        <v>53577</v>
       </c>
       <c r="E17">
-        <v>87196</v>
+        <v>65108</v>
       </c>
       <c r="F17">
-        <v>50893</v>
+        <v>37314</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,19 +5923,19 @@
         <v>17000</v>
       </c>
       <c r="B18">
-        <v>40748</v>
+        <v>45316</v>
       </c>
       <c r="C18">
-        <v>4408</v>
+        <v>3797</v>
       </c>
       <c r="D18">
-        <v>78318</v>
+        <v>57094</v>
       </c>
       <c r="E18">
-        <v>87812</v>
+        <v>69534</v>
       </c>
       <c r="F18">
-        <v>51026</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5944,19 +5943,19 @@
         <v>18000</v>
       </c>
       <c r="B19">
-        <v>75158</v>
+        <v>48276</v>
       </c>
       <c r="C19">
-        <v>6220</v>
+        <v>5277</v>
       </c>
       <c r="D19">
-        <v>105617</v>
+        <v>60780</v>
       </c>
       <c r="E19">
-        <v>117834</v>
+        <v>74241</v>
       </c>
       <c r="F19">
-        <v>67921</v>
+        <v>40112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5964,19 +5963,19 @@
         <v>19000</v>
       </c>
       <c r="B20">
-        <v>70635</v>
+        <v>51332</v>
       </c>
       <c r="C20">
-        <v>5649</v>
+        <v>4146</v>
       </c>
       <c r="D20">
-        <v>98580</v>
+        <v>64544</v>
       </c>
       <c r="E20">
-        <v>109318</v>
+        <v>78273</v>
       </c>
       <c r="F20">
-        <v>63775</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5984,19 +5983,19 @@
         <v>20000</v>
       </c>
       <c r="B21">
-        <v>73616</v>
+        <v>54596</v>
       </c>
       <c r="C21">
-        <v>5903</v>
+        <v>4856</v>
       </c>
       <c r="D21">
-        <v>102228</v>
+        <v>68817</v>
       </c>
       <c r="E21">
-        <v>114260</v>
+        <v>83675</v>
       </c>
       <c r="F21">
-        <v>68419</v>
+        <v>46678</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,19 +6003,19 @@
         <v>21000</v>
       </c>
       <c r="B22">
-        <v>69167</v>
+        <v>56086</v>
       </c>
       <c r="C22">
-        <v>5582</v>
+        <v>4433</v>
       </c>
       <c r="D22">
-        <v>96365</v>
+        <v>70410</v>
       </c>
       <c r="E22">
-        <v>108256</v>
+        <v>86239</v>
       </c>
       <c r="F22">
-        <v>62236</v>
+        <v>47702</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6024,19 +6023,19 @@
         <v>22000</v>
       </c>
       <c r="B23">
-        <v>67851</v>
+        <v>61274</v>
       </c>
       <c r="C23">
-        <v>5492</v>
+        <v>5076</v>
       </c>
       <c r="D23">
-        <v>95391</v>
+        <v>77309</v>
       </c>
       <c r="E23">
-        <v>106917</v>
+        <v>94782</v>
       </c>
       <c r="F23">
-        <v>61257</v>
+        <v>64755</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,19 +6043,19 @@
         <v>23000</v>
       </c>
       <c r="B24">
-        <v>69742</v>
+        <v>61506</v>
       </c>
       <c r="C24">
-        <v>5825</v>
+        <v>4991</v>
       </c>
       <c r="D24">
-        <v>116542</v>
+        <v>77008</v>
       </c>
       <c r="E24">
-        <v>108945</v>
+        <v>94546</v>
       </c>
       <c r="F24">
-        <v>80753</v>
+        <v>52514</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,19 +6063,19 @@
         <v>24000</v>
       </c>
       <c r="B25">
-        <v>75796</v>
+        <v>66248</v>
       </c>
       <c r="C25">
-        <v>6109</v>
+        <v>5417</v>
       </c>
       <c r="D25">
-        <v>101600</v>
+        <v>83230</v>
       </c>
       <c r="E25">
-        <v>117374</v>
+        <v>101675</v>
       </c>
       <c r="F25">
-        <v>77509</v>
+        <v>56727</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,19 +6083,19 @@
         <v>25000</v>
       </c>
       <c r="B26">
-        <v>101668</v>
+        <v>67128</v>
       </c>
       <c r="C26">
-        <v>8241</v>
+        <v>5460</v>
       </c>
       <c r="D26">
-        <v>135111</v>
+        <v>84252</v>
       </c>
       <c r="E26">
-        <v>155380</v>
+        <v>103313</v>
       </c>
       <c r="F26">
-        <v>100531</v>
+        <v>56798</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,19 +6103,19 @@
         <v>26000</v>
       </c>
       <c r="B27">
-        <v>96885</v>
+        <v>70181</v>
       </c>
       <c r="C27">
-        <v>8023</v>
+        <v>5633</v>
       </c>
       <c r="D27">
-        <v>131974</v>
+        <v>88205</v>
       </c>
       <c r="E27">
-        <v>149210</v>
+        <v>108206</v>
       </c>
       <c r="F27">
-        <v>99948</v>
+        <v>58736</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6124,19 +6123,19 @@
         <v>27000</v>
       </c>
       <c r="B28">
-        <v>89534</v>
+        <v>73211</v>
       </c>
       <c r="C28">
-        <v>7479</v>
+        <v>5973</v>
       </c>
       <c r="D28">
-        <v>120027</v>
+        <v>92078</v>
       </c>
       <c r="E28">
-        <v>139242</v>
+        <v>112418</v>
       </c>
       <c r="F28">
-        <v>90694</v>
+        <v>62172</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,19 +6143,19 @@
         <v>28000</v>
       </c>
       <c r="B29">
-        <v>91275</v>
+        <v>75580</v>
       </c>
       <c r="C29">
-        <v>7575</v>
+        <v>6206</v>
       </c>
       <c r="D29">
-        <v>122396</v>
+        <v>94883</v>
       </c>
       <c r="E29">
-        <v>142527</v>
+        <v>115707</v>
       </c>
       <c r="F29">
-        <v>92600</v>
+        <v>85063</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,19 +6163,19 @@
         <v>29000</v>
       </c>
       <c r="B30">
-        <v>88494</v>
+        <v>78855</v>
       </c>
       <c r="C30">
-        <v>7384</v>
+        <v>6454</v>
       </c>
       <c r="D30">
-        <v>118402</v>
+        <v>98957</v>
       </c>
       <c r="E30">
-        <v>137686</v>
+        <v>120578</v>
       </c>
       <c r="F30">
-        <v>88131</v>
+        <v>65660</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6184,19 +6183,19 @@
         <v>30000</v>
       </c>
       <c r="B31">
-        <v>98058</v>
+        <v>82115</v>
       </c>
       <c r="C31">
-        <v>8133</v>
+        <v>6735</v>
       </c>
       <c r="D31">
-        <v>132066</v>
+        <v>103103</v>
       </c>
       <c r="E31">
-        <v>154300</v>
+        <v>125416</v>
       </c>
       <c r="F31">
-        <v>97540</v>
+        <v>66848</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6204,19 +6203,19 @@
         <v>31000</v>
       </c>
       <c r="B32">
-        <v>100788</v>
+        <v>84053</v>
       </c>
       <c r="C32">
-        <v>8391</v>
+        <v>6813</v>
       </c>
       <c r="D32">
-        <v>135102</v>
+        <v>105267</v>
       </c>
       <c r="E32">
-        <v>157841</v>
+        <v>129342</v>
       </c>
       <c r="F32">
-        <v>124364</v>
+        <v>69727</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6224,19 +6223,19 @@
         <v>32000</v>
       </c>
       <c r="B33">
-        <v>109299</v>
+        <v>94140</v>
       </c>
       <c r="C33">
-        <v>9038</v>
+        <v>7719</v>
       </c>
       <c r="D33">
-        <v>146725</v>
+        <v>118236</v>
       </c>
       <c r="E33">
-        <v>171263</v>
+        <v>144437</v>
       </c>
       <c r="F33">
-        <v>110448</v>
+        <v>77798</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,19 +6243,19 @@
         <v>33000</v>
       </c>
       <c r="B34">
-        <v>110437</v>
+        <v>88792</v>
       </c>
       <c r="C34">
-        <v>8786</v>
+        <v>7209</v>
       </c>
       <c r="D34">
-        <v>148013</v>
+        <v>111616</v>
       </c>
       <c r="E34">
-        <v>171688</v>
+        <v>136868</v>
       </c>
       <c r="F34">
-        <v>110960</v>
+        <v>72991</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,19 +6263,19 @@
         <v>34000</v>
       </c>
       <c r="B35">
-        <v>105814</v>
+        <v>92018</v>
       </c>
       <c r="C35">
-        <v>8324</v>
+        <v>7770</v>
       </c>
       <c r="D35">
-        <v>142113</v>
+        <v>115773</v>
       </c>
       <c r="E35">
-        <v>165164</v>
+        <v>141935</v>
       </c>
       <c r="F35">
-        <v>107289</v>
+        <v>78072</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6284,19 +6283,19 @@
         <v>35000</v>
       </c>
       <c r="B36">
-        <v>117188</v>
+        <v>95481</v>
       </c>
       <c r="C36">
-        <v>9697</v>
+        <v>7766</v>
       </c>
       <c r="D36">
-        <v>156621</v>
+        <v>119920</v>
       </c>
       <c r="E36">
-        <v>183135</v>
+        <v>146893</v>
       </c>
       <c r="F36">
-        <v>116296</v>
+        <v>78229</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6304,19 +6303,19 @@
         <v>36000</v>
       </c>
       <c r="B37">
-        <v>108917</v>
+        <v>97896</v>
       </c>
       <c r="C37">
-        <v>8841</v>
+        <v>7931</v>
       </c>
       <c r="D37">
-        <v>146254</v>
+        <v>122603</v>
       </c>
       <c r="E37">
-        <v>169900</v>
+        <v>150256</v>
       </c>
       <c r="F37">
-        <v>108438</v>
+        <v>80232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,19 +6323,19 @@
         <v>37000</v>
       </c>
       <c r="B38">
-        <v>126452</v>
+        <v>105177</v>
       </c>
       <c r="C38">
-        <v>10263</v>
+        <v>8374</v>
       </c>
       <c r="D38">
-        <v>169309</v>
+        <v>132333</v>
       </c>
       <c r="E38">
-        <v>196513</v>
+        <v>161253</v>
       </c>
       <c r="F38">
-        <v>125202</v>
+        <v>84821</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6344,19 +6343,19 @@
         <v>38000</v>
       </c>
       <c r="B39">
-        <v>129872</v>
+        <v>103137</v>
       </c>
       <c r="C39">
-        <v>10508</v>
+        <v>8363</v>
       </c>
       <c r="D39">
-        <v>172565</v>
+        <v>129461</v>
       </c>
       <c r="E39">
-        <v>200715</v>
+        <v>157310</v>
       </c>
       <c r="F39">
-        <v>132406</v>
+        <v>82821</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,19 +6363,19 @@
         <v>39000</v>
       </c>
       <c r="B40">
-        <v>121289</v>
+        <v>70044</v>
       </c>
       <c r="C40">
-        <v>9685</v>
+        <v>10319</v>
       </c>
       <c r="D40">
-        <v>161851</v>
+        <v>133599</v>
       </c>
       <c r="E40">
-        <v>188141</v>
+        <v>163608</v>
       </c>
       <c r="F40">
-        <v>120482</v>
+        <v>87794</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,19 +6383,19 @@
         <v>40000</v>
       </c>
       <c r="B41">
-        <v>121292</v>
+        <v>73901</v>
       </c>
       <c r="C41">
-        <v>9554</v>
+        <v>7816</v>
       </c>
       <c r="D41">
-        <v>162653</v>
+        <v>141241</v>
       </c>
       <c r="E41">
-        <v>189460</v>
+        <v>171696</v>
       </c>
       <c r="F41">
-        <v>120397</v>
+        <v>90958</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,19 +6403,19 @@
         <v>41000</v>
       </c>
       <c r="B42">
-        <v>136126</v>
+        <v>101711</v>
       </c>
       <c r="C42">
-        <v>11726</v>
+        <v>8181</v>
       </c>
       <c r="D42">
-        <v>183041</v>
+        <v>142055</v>
       </c>
       <c r="E42">
-        <v>213792</v>
+        <v>173466</v>
       </c>
       <c r="F42">
-        <v>135251</v>
+        <v>89898</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6424,19 +6423,19 @@
         <v>42000</v>
       </c>
       <c r="B43">
-        <v>133347</v>
+        <v>104066</v>
       </c>
       <c r="C43">
-        <v>10717</v>
+        <v>8388</v>
       </c>
       <c r="D43">
-        <v>179141</v>
+        <v>145020</v>
       </c>
       <c r="E43">
-        <v>209746</v>
+        <v>177206</v>
       </c>
       <c r="F43">
-        <v>132493</v>
+        <v>93702</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,19 +6443,19 @@
         <v>43000</v>
       </c>
       <c r="B44">
-        <v>139687</v>
+        <v>105680</v>
       </c>
       <c r="C44">
-        <v>11388</v>
+        <v>8581</v>
       </c>
       <c r="D44">
-        <v>187018</v>
+        <v>147464</v>
       </c>
       <c r="E44">
-        <v>217410</v>
+        <v>181089</v>
       </c>
       <c r="F44">
-        <v>137359</v>
+        <v>97091</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,19 +6463,19 @@
         <v>44000</v>
       </c>
       <c r="B45">
-        <v>166633</v>
+        <v>115905</v>
       </c>
       <c r="C45">
-        <v>13454</v>
+        <v>9390</v>
       </c>
       <c r="D45">
-        <v>222386</v>
+        <v>161508</v>
       </c>
       <c r="E45">
-        <v>258003</v>
+        <v>196704</v>
       </c>
       <c r="F45">
-        <v>197496</v>
+        <v>102670</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6484,19 +6483,19 @@
         <v>45000</v>
       </c>
       <c r="B46">
-        <v>138215</v>
+        <v>111754</v>
       </c>
       <c r="C46">
-        <v>11331</v>
+        <v>8976</v>
       </c>
       <c r="D46">
-        <v>185167</v>
+        <v>154956</v>
       </c>
       <c r="E46">
-        <v>215285</v>
+        <v>189852</v>
       </c>
       <c r="F46">
-        <v>138209</v>
+        <v>101357</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6504,19 +6503,19 @@
         <v>46000</v>
       </c>
       <c r="B47">
-        <v>173023</v>
+        <v>114221</v>
       </c>
       <c r="C47">
-        <v>14103</v>
+        <v>9137</v>
       </c>
       <c r="D47">
-        <v>231850</v>
+        <v>159669</v>
       </c>
       <c r="E47">
-        <v>269171</v>
+        <v>194615</v>
       </c>
       <c r="F47">
-        <v>171610</v>
+        <v>102729</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6524,19 +6523,19 @@
         <v>47000</v>
       </c>
       <c r="B48">
-        <v>158316</v>
+        <v>115875</v>
       </c>
       <c r="C48">
-        <v>12683</v>
+        <v>9520</v>
       </c>
       <c r="D48">
-        <v>212159</v>
+        <v>161538</v>
       </c>
       <c r="E48">
-        <v>246074</v>
+        <v>197864</v>
       </c>
       <c r="F48">
-        <v>157679</v>
+        <v>106160</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6544,19 +6543,19 @@
         <v>48000</v>
       </c>
       <c r="B49">
-        <v>157410</v>
+        <v>118590</v>
       </c>
       <c r="C49">
-        <v>12792</v>
+        <v>9650</v>
       </c>
       <c r="D49">
-        <v>211323</v>
+        <v>165836</v>
       </c>
       <c r="E49">
-        <v>246645</v>
+        <v>202502</v>
       </c>
       <c r="F49">
-        <v>155806</v>
+        <v>106911</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6564,19 +6563,19 @@
         <v>49000</v>
       </c>
       <c r="B50">
-        <v>198904</v>
+        <v>125278</v>
       </c>
       <c r="C50">
-        <v>16004</v>
+        <v>10294</v>
       </c>
       <c r="D50">
-        <v>265018</v>
+        <v>174847</v>
       </c>
       <c r="E50">
-        <v>302287</v>
+        <v>211714</v>
       </c>
       <c r="F50">
-        <v>196322</v>
+        <v>110975</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6584,19 +6583,19 @@
         <v>50000</v>
       </c>
       <c r="B51">
-        <v>181131</v>
+        <v>124010</v>
       </c>
       <c r="C51">
-        <v>20122</v>
+        <v>9796</v>
       </c>
       <c r="D51">
-        <v>244938</v>
+        <v>172905</v>
       </c>
       <c r="E51">
-        <v>278804</v>
+        <v>211718</v>
       </c>
       <c r="F51">
-        <v>176396</v>
+        <v>112499</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6604,19 +6603,19 @@
         <v>51000</v>
       </c>
       <c r="B52">
-        <v>164950</v>
+        <v>140084</v>
       </c>
       <c r="C52">
-        <v>13414</v>
+        <v>11713</v>
       </c>
       <c r="D52">
-        <v>221364</v>
+        <v>193265</v>
       </c>
       <c r="E52">
-        <v>258301</v>
+        <v>234848</v>
       </c>
       <c r="F52">
-        <v>164573</v>
+        <v>129893</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,19 +6623,19 @@
         <v>52000</v>
       </c>
       <c r="B53">
-        <v>217185</v>
+        <v>129266</v>
       </c>
       <c r="C53">
-        <v>17741</v>
+        <v>10685</v>
       </c>
       <c r="D53">
-        <v>290093</v>
+        <v>180477</v>
       </c>
       <c r="E53">
-        <v>323737</v>
+        <v>219949</v>
       </c>
       <c r="F53">
-        <v>218075</v>
+        <v>124163</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,19 +6643,19 @@
         <v>53000</v>
       </c>
       <c r="B54">
-        <v>217441</v>
+        <v>143385</v>
       </c>
       <c r="C54">
-        <v>17907</v>
+        <v>11645</v>
       </c>
       <c r="D54">
-        <v>289384</v>
+        <v>199082</v>
       </c>
       <c r="E54">
-        <v>333070</v>
+        <v>242797</v>
       </c>
       <c r="F54">
-        <v>214343</v>
+        <v>126757</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6664,19 +6663,19 @@
         <v>54000</v>
       </c>
       <c r="B55">
-        <v>200519</v>
+        <v>142962</v>
       </c>
       <c r="C55">
-        <v>16142</v>
+        <v>11738</v>
       </c>
       <c r="D55">
-        <v>266550</v>
+        <v>198713</v>
       </c>
       <c r="E55">
-        <v>308373</v>
+        <v>243033</v>
       </c>
       <c r="F55">
-        <v>194587</v>
+        <v>130540</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6684,19 +6683,19 @@
         <v>55000</v>
       </c>
       <c r="B56">
-        <v>212459</v>
+        <v>139124</v>
       </c>
       <c r="C56">
-        <v>17212</v>
+        <v>11535</v>
       </c>
       <c r="D56">
-        <v>285395</v>
+        <v>193331</v>
       </c>
       <c r="E56">
-        <v>332360</v>
+        <v>235869</v>
       </c>
       <c r="F56">
-        <v>213476</v>
+        <v>127877</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6704,19 +6703,19 @@
         <v>56000</v>
       </c>
       <c r="B57">
-        <v>171211</v>
+        <v>140813</v>
       </c>
       <c r="C57">
-        <v>13736</v>
+        <v>11262</v>
       </c>
       <c r="D57">
-        <v>229148</v>
+        <v>196246</v>
       </c>
       <c r="E57">
-        <v>266490</v>
+        <v>239454</v>
       </c>
       <c r="F57">
-        <v>169392</v>
+        <v>126316</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,19 +6723,19 @@
         <v>57000</v>
       </c>
       <c r="B58">
-        <v>206334</v>
+        <v>142194</v>
       </c>
       <c r="C58">
-        <v>16306</v>
+        <v>11382</v>
       </c>
       <c r="D58">
-        <v>277085</v>
+        <v>197723</v>
       </c>
       <c r="E58">
-        <v>319728</v>
+        <v>241495</v>
       </c>
       <c r="F58">
-        <v>205520</v>
+        <v>128619</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,19 +6743,19 @@
         <v>58000</v>
       </c>
       <c r="B59">
-        <v>238205</v>
+        <v>153592</v>
       </c>
       <c r="C59">
-        <v>19531</v>
+        <v>12763</v>
       </c>
       <c r="D59">
-        <v>320288</v>
+        <v>209070</v>
       </c>
       <c r="E59">
-        <v>357233</v>
+        <v>247901</v>
       </c>
       <c r="F59">
-        <v>235403</v>
+        <v>132603</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6764,19 +6763,19 @@
         <v>59000</v>
       </c>
       <c r="B60">
-        <v>272314</v>
+        <v>149022</v>
       </c>
       <c r="C60">
-        <v>22157</v>
+        <v>11890</v>
       </c>
       <c r="D60">
-        <v>363592</v>
+        <v>207565</v>
       </c>
       <c r="E60">
-        <v>418344</v>
+        <v>253802</v>
       </c>
       <c r="F60">
-        <v>268454</v>
+        <v>132923</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,19 +6783,19 @@
         <v>60000</v>
       </c>
       <c r="B61">
-        <v>234467</v>
+        <v>157724</v>
       </c>
       <c r="C61">
-        <v>18881</v>
+        <v>12616</v>
       </c>
       <c r="D61">
-        <v>307568</v>
+        <v>219287</v>
       </c>
       <c r="E61">
-        <v>353080</v>
+        <v>268911</v>
       </c>
       <c r="F61">
-        <v>225113</v>
+        <v>140555</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,19 +6803,19 @@
         <v>61000</v>
       </c>
       <c r="B62">
-        <v>193593</v>
+        <v>154316</v>
       </c>
       <c r="C62">
-        <v>15450</v>
+        <v>12534</v>
       </c>
       <c r="D62">
-        <v>258306</v>
+        <v>214208</v>
       </c>
       <c r="E62">
-        <v>301141</v>
+        <v>263070</v>
       </c>
       <c r="F62">
-        <v>191393</v>
+        <v>137921</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6824,19 +6823,19 @@
         <v>62000</v>
       </c>
       <c r="B63">
-        <v>198603</v>
+        <v>156210</v>
       </c>
       <c r="C63">
-        <v>16156</v>
+        <v>12732</v>
       </c>
       <c r="D63">
-        <v>265292</v>
+        <v>218002</v>
       </c>
       <c r="E63">
-        <v>309394</v>
+        <v>266887</v>
       </c>
       <c r="F63">
-        <v>195990</v>
+        <v>139266</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,19 +6843,19 @@
         <v>63000</v>
       </c>
       <c r="B64">
-        <v>194988</v>
+        <v>161462</v>
       </c>
       <c r="C64">
-        <v>15677</v>
+        <v>13421</v>
       </c>
       <c r="D64">
-        <v>260766</v>
+        <v>224701</v>
       </c>
       <c r="E64">
-        <v>303512</v>
+        <v>274478</v>
       </c>
       <c r="F64">
-        <v>191891</v>
+        <v>144710</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6864,19 +6863,19 @@
         <v>64000</v>
       </c>
       <c r="B65">
-        <v>215484</v>
+        <v>165327</v>
       </c>
       <c r="C65">
-        <v>17262</v>
+        <v>13568</v>
       </c>
       <c r="D65">
-        <v>288168</v>
+        <v>229494</v>
       </c>
       <c r="E65">
-        <v>337704</v>
+        <v>280816</v>
       </c>
       <c r="F65">
-        <v>212570</v>
+        <v>146034</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6884,19 +6883,19 @@
         <v>65000</v>
       </c>
       <c r="B66">
-        <v>198486</v>
+        <v>165060</v>
       </c>
       <c r="C66">
-        <v>16518</v>
+        <v>13333</v>
       </c>
       <c r="D66">
-        <v>265195</v>
+        <v>230537</v>
       </c>
       <c r="E66">
-        <v>309425</v>
+        <v>280463</v>
       </c>
       <c r="F66">
-        <v>195713</v>
+        <v>148072</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6904,19 +6903,19 @@
         <v>66000</v>
       </c>
       <c r="B67">
-        <v>261662</v>
+        <v>171054</v>
       </c>
       <c r="C67">
-        <v>20800</v>
+        <v>13628</v>
       </c>
       <c r="D67">
-        <v>350125</v>
+        <v>237231</v>
       </c>
       <c r="E67">
-        <v>390787</v>
+        <v>290198</v>
       </c>
       <c r="F67">
-        <v>252634</v>
+        <v>152571</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,19 +6923,19 @@
         <v>67000</v>
       </c>
       <c r="B68">
-        <v>262199</v>
+        <v>171010</v>
       </c>
       <c r="C68">
-        <v>24035</v>
+        <v>14191</v>
       </c>
       <c r="D68">
-        <v>342198</v>
+        <v>237986</v>
       </c>
       <c r="E68">
-        <v>396084</v>
+        <v>291353</v>
       </c>
       <c r="F68">
-        <v>253479</v>
+        <v>153247</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6944,19 +6943,19 @@
         <v>68000</v>
       </c>
       <c r="B69">
-        <v>259508</v>
+        <v>173798</v>
       </c>
       <c r="C69">
-        <v>21126</v>
+        <v>13751</v>
       </c>
       <c r="D69">
-        <v>347834</v>
+        <v>241171</v>
       </c>
       <c r="E69">
-        <v>404373</v>
+        <v>295016</v>
       </c>
       <c r="F69">
-        <v>258393</v>
+        <v>154720</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6964,19 +6963,19 @@
         <v>69000</v>
       </c>
       <c r="B70">
-        <v>236578</v>
+        <v>178168</v>
       </c>
       <c r="C70">
-        <v>18703</v>
+        <v>14276</v>
       </c>
       <c r="D70">
-        <v>316390</v>
+        <v>248316</v>
       </c>
       <c r="E70">
-        <v>369007</v>
+        <v>303827</v>
       </c>
       <c r="F70">
-        <v>235471</v>
+        <v>159153</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,19 +6983,19 @@
         <v>70000</v>
       </c>
       <c r="B71">
-        <v>282613</v>
+        <v>176787</v>
       </c>
       <c r="C71">
-        <v>22651</v>
+        <v>14259</v>
       </c>
       <c r="D71">
-        <v>375815</v>
+        <v>246865</v>
       </c>
       <c r="E71">
-        <v>420743</v>
+        <v>301815</v>
       </c>
       <c r="F71">
-        <v>278942</v>
+        <v>158360</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7004,19 +7003,19 @@
         <v>71000</v>
       </c>
       <c r="B72">
-        <v>382321</v>
+        <v>185852</v>
       </c>
       <c r="C72">
-        <v>31703</v>
+        <v>14866</v>
       </c>
       <c r="D72">
-        <v>501499</v>
+        <v>258463</v>
       </c>
       <c r="E72">
-        <v>561715</v>
+        <v>316485</v>
       </c>
       <c r="F72">
-        <v>363101</v>
+        <v>166130</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,19 +7023,19 @@
         <v>72000</v>
       </c>
       <c r="B73">
-        <v>327767</v>
+        <v>188316</v>
       </c>
       <c r="C73">
-        <v>26684</v>
+        <v>14995</v>
       </c>
       <c r="D73">
-        <v>441253</v>
+        <v>262085</v>
       </c>
       <c r="E73">
-        <v>492677</v>
+        <v>319969</v>
       </c>
       <c r="F73">
-        <v>322679</v>
+        <v>168007</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7044,19 +7043,19 @@
         <v>73000</v>
       </c>
       <c r="B74">
-        <v>277139</v>
+        <v>190010</v>
       </c>
       <c r="C74">
-        <v>21961</v>
+        <v>15010</v>
       </c>
       <c r="D74">
-        <v>363878</v>
+        <v>263206</v>
       </c>
       <c r="E74">
-        <v>421832</v>
+        <v>319949</v>
       </c>
       <c r="F74">
-        <v>276634</v>
+        <v>169446</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7064,19 +7063,19 @@
         <v>74000</v>
       </c>
       <c r="B75">
-        <v>277169</v>
+        <v>200497</v>
       </c>
       <c r="C75">
-        <v>22674</v>
+        <v>16237</v>
       </c>
       <c r="D75">
-        <v>378699</v>
+        <v>279940</v>
       </c>
       <c r="E75">
-        <v>429106</v>
+        <v>342850</v>
       </c>
       <c r="F75">
-        <v>275347</v>
+        <v>179127</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,19 +7083,19 @@
         <v>75000</v>
       </c>
       <c r="B76">
-        <v>245647</v>
+        <v>203901</v>
       </c>
       <c r="C76">
-        <v>19641</v>
+        <v>16723</v>
       </c>
       <c r="D76">
-        <v>328995</v>
+        <v>292510</v>
       </c>
       <c r="E76">
-        <v>385281</v>
+        <v>346880</v>
       </c>
       <c r="F76">
-        <v>243270</v>
+        <v>181473</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,19 +7103,19 @@
         <v>76000</v>
       </c>
       <c r="B77">
-        <v>240530</v>
+        <v>200325</v>
       </c>
       <c r="C77">
-        <v>19409</v>
+        <v>16234</v>
       </c>
       <c r="D77">
-        <v>321185</v>
+        <v>278794</v>
       </c>
       <c r="E77">
-        <v>374929</v>
+        <v>340956</v>
       </c>
       <c r="F77">
-        <v>238597</v>
+        <v>178094</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7124,19 +7123,19 @@
         <v>77000</v>
       </c>
       <c r="B78">
-        <v>249382</v>
+        <v>199495</v>
       </c>
       <c r="C78">
-        <v>20356</v>
+        <v>16195</v>
       </c>
       <c r="D78">
-        <v>333745</v>
+        <v>275940</v>
       </c>
       <c r="E78">
-        <v>388234</v>
+        <v>337025</v>
       </c>
       <c r="F78">
-        <v>246555</v>
+        <v>177503</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,19 +7143,19 @@
         <v>78000</v>
       </c>
       <c r="B79">
-        <v>286281</v>
+        <v>198216</v>
       </c>
       <c r="C79">
-        <v>23704</v>
+        <v>16584</v>
       </c>
       <c r="D79">
-        <v>382958</v>
+        <v>276997</v>
       </c>
       <c r="E79">
-        <v>446857</v>
+        <v>338964</v>
       </c>
       <c r="F79">
-        <v>284085</v>
+        <v>176574</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7164,19 +7163,19 @@
         <v>79000</v>
       </c>
       <c r="B80">
-        <v>305776</v>
+        <v>211543</v>
       </c>
       <c r="C80">
-        <v>24785</v>
+        <v>17222</v>
       </c>
       <c r="D80">
-        <v>408667</v>
+        <v>291978</v>
       </c>
       <c r="E80">
-        <v>479135</v>
+        <v>352053</v>
       </c>
       <c r="F80">
-        <v>301926</v>
+        <v>188277</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7184,19 +7183,19 @@
         <v>80000</v>
       </c>
       <c r="B81">
-        <v>281256</v>
+        <v>206805</v>
       </c>
       <c r="C81">
-        <v>22672</v>
+        <v>17145</v>
       </c>
       <c r="D81">
-        <v>376561</v>
+        <v>287622</v>
       </c>
       <c r="E81">
-        <v>440497</v>
+        <v>351634</v>
       </c>
       <c r="F81">
-        <v>279567</v>
+        <v>183764</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,19 +7203,19 @@
         <v>81000</v>
       </c>
       <c r="B82">
-        <v>256641</v>
+        <v>211124</v>
       </c>
       <c r="C82">
-        <v>20660</v>
+        <v>16977</v>
       </c>
       <c r="D82">
-        <v>343214</v>
+        <v>293090</v>
       </c>
       <c r="E82">
-        <v>400739</v>
+        <v>358427</v>
       </c>
       <c r="F82">
-        <v>253130</v>
+        <v>188044</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7224,19 +7223,19 @@
         <v>82000</v>
       </c>
       <c r="B83">
-        <v>328108</v>
+        <v>211709</v>
       </c>
       <c r="C83">
-        <v>27058</v>
+        <v>17003</v>
       </c>
       <c r="D83">
-        <v>439178</v>
+        <v>294111</v>
       </c>
       <c r="E83">
-        <v>521351</v>
+        <v>360490</v>
       </c>
       <c r="F83">
-        <v>327174</v>
+        <v>188544</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,19 +7243,19 @@
         <v>83000</v>
       </c>
       <c r="B84">
-        <v>332696</v>
+        <v>211524</v>
       </c>
       <c r="C84">
-        <v>27154</v>
+        <v>16687</v>
       </c>
       <c r="D84">
-        <v>461577</v>
+        <v>294464</v>
       </c>
       <c r="E84">
-        <v>513334</v>
+        <v>360832</v>
       </c>
       <c r="F84">
-        <v>335563</v>
+        <v>188247</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,19 +7263,19 @@
         <v>84000</v>
       </c>
       <c r="B85">
-        <v>294832</v>
+        <v>225095</v>
       </c>
       <c r="C85">
-        <v>24369</v>
+        <v>18130</v>
       </c>
       <c r="D85">
-        <v>393056</v>
+        <v>322399</v>
       </c>
       <c r="E85">
-        <v>463329</v>
+        <v>384107</v>
       </c>
       <c r="F85">
-        <v>291785</v>
+        <v>200390</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7284,19 +7283,19 @@
         <v>85000</v>
       </c>
       <c r="B86">
-        <v>315214</v>
+        <v>228356</v>
       </c>
       <c r="C86">
-        <v>25518</v>
+        <v>18851</v>
       </c>
       <c r="D86">
-        <v>421510</v>
+        <v>317336</v>
       </c>
       <c r="E86">
-        <v>493673</v>
+        <v>386244</v>
       </c>
       <c r="F86">
-        <v>312952</v>
+        <v>203808</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,19 +7303,19 @@
         <v>86000</v>
       </c>
       <c r="B87">
-        <v>284339</v>
+        <v>232488</v>
       </c>
       <c r="C87">
-        <v>22342</v>
+        <v>21835</v>
       </c>
       <c r="D87">
-        <v>388626</v>
+        <v>329046</v>
       </c>
       <c r="E87">
-        <v>446454</v>
+        <v>393408</v>
       </c>
       <c r="F87">
-        <v>280687</v>
+        <v>208872</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -7324,19 +7323,19 @@
         <v>87000</v>
       </c>
       <c r="B88">
-        <v>283969</v>
+        <v>233139</v>
       </c>
       <c r="C88">
-        <v>22772</v>
+        <v>18680</v>
       </c>
       <c r="D88">
-        <v>380317</v>
+        <v>328800</v>
       </c>
       <c r="E88">
-        <v>443093</v>
+        <v>402262</v>
       </c>
       <c r="F88">
-        <v>282053</v>
+        <v>210154</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7344,19 +7343,19 @@
         <v>88000</v>
       </c>
       <c r="B89">
-        <v>301459</v>
+        <v>247326</v>
       </c>
       <c r="C89">
-        <v>23986</v>
+        <v>20143</v>
       </c>
       <c r="D89">
-        <v>400485</v>
+        <v>337257</v>
       </c>
       <c r="E89">
-        <v>466796</v>
+        <v>404852</v>
       </c>
       <c r="F89">
-        <v>297698</v>
+        <v>218844</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7364,19 +7363,19 @@
         <v>89000</v>
       </c>
       <c r="B90">
-        <v>331888</v>
+        <v>234135</v>
       </c>
       <c r="C90">
-        <v>27050</v>
+        <v>18694</v>
       </c>
       <c r="D90">
-        <v>445062</v>
+        <v>327454</v>
       </c>
       <c r="E90">
-        <v>513222</v>
+        <v>397239</v>
       </c>
       <c r="F90">
-        <v>328830</v>
+        <v>209021</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7384,19 +7383,19 @@
         <v>90000</v>
       </c>
       <c r="B91">
-        <v>309089</v>
+        <v>259774</v>
       </c>
       <c r="C91">
-        <v>24837</v>
+        <v>20142</v>
       </c>
       <c r="D91">
-        <v>413331</v>
+        <v>347560</v>
       </c>
       <c r="E91">
-        <v>481075</v>
+        <v>426533</v>
       </c>
       <c r="F91">
-        <v>307341</v>
+        <v>227929</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,19 +7403,19 @@
         <v>91000</v>
       </c>
       <c r="B92">
-        <v>349655</v>
+        <v>249949</v>
       </c>
       <c r="C92">
-        <v>28331</v>
+        <v>20313</v>
       </c>
       <c r="D92">
-        <v>466804</v>
+        <v>351726</v>
       </c>
       <c r="E92">
-        <v>545151</v>
+        <v>433915</v>
       </c>
       <c r="F92">
-        <v>347807</v>
+        <v>228903</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -7424,19 +7423,19 @@
         <v>92000</v>
       </c>
       <c r="B93">
-        <v>339759</v>
+        <v>255454</v>
       </c>
       <c r="C93">
-        <v>27876</v>
+        <v>22272</v>
       </c>
       <c r="D93">
-        <v>458105</v>
+        <v>353640</v>
       </c>
       <c r="E93">
-        <v>529903</v>
+        <v>430180</v>
       </c>
       <c r="F93">
-        <v>337231</v>
+        <v>231761</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7444,19 +7443,19 @@
         <v>93000</v>
       </c>
       <c r="B94">
-        <v>326139</v>
+        <v>246548</v>
       </c>
       <c r="C94">
-        <v>26024</v>
+        <v>19778</v>
       </c>
       <c r="D94">
-        <v>433462</v>
+        <v>346210</v>
       </c>
       <c r="E94">
-        <v>504279</v>
+        <v>416974</v>
       </c>
       <c r="F94">
-        <v>320334</v>
+        <v>223467</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -7464,19 +7463,19 @@
         <v>94000</v>
       </c>
       <c r="B95">
-        <v>363998</v>
+        <v>255914</v>
       </c>
       <c r="C95">
-        <v>29229</v>
+        <v>21147</v>
       </c>
       <c r="D95">
-        <v>493315</v>
+        <v>355160</v>
       </c>
       <c r="E95">
-        <v>568830</v>
+        <v>436132</v>
       </c>
       <c r="F95">
-        <v>363707</v>
+        <v>230203</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,19 +7483,19 @@
         <v>95000</v>
       </c>
       <c r="B96">
-        <v>370659</v>
+        <v>248574</v>
       </c>
       <c r="C96">
-        <v>30137</v>
+        <v>20236</v>
       </c>
       <c r="D96">
-        <v>491965</v>
+        <v>344489</v>
       </c>
       <c r="E96">
-        <v>574501</v>
+        <v>422286</v>
       </c>
       <c r="F96">
-        <v>370013</v>
+        <v>220947</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7504,19 +7503,19 @@
         <v>96000</v>
       </c>
       <c r="B97">
-        <v>312190</v>
+        <v>254776</v>
       </c>
       <c r="C97">
-        <v>24882</v>
+        <v>20538</v>
       </c>
       <c r="D97">
-        <v>416196</v>
+        <v>353112</v>
       </c>
       <c r="E97">
-        <v>486187</v>
+        <v>431746</v>
       </c>
       <c r="F97">
-        <v>306966</v>
+        <v>226423</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,19 +7523,19 @@
         <v>97000</v>
       </c>
       <c r="B98">
-        <v>332549</v>
+        <v>259731</v>
       </c>
       <c r="C98">
-        <v>26982</v>
+        <v>21506</v>
       </c>
       <c r="D98">
-        <v>445264</v>
+        <v>360080</v>
       </c>
       <c r="E98">
-        <v>519194</v>
+        <v>433509</v>
       </c>
       <c r="F98">
-        <v>331856</v>
+        <v>232323</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7544,19 +7543,19 @@
         <v>98000</v>
       </c>
       <c r="B99">
-        <v>367060</v>
+        <v>256626</v>
       </c>
       <c r="C99">
-        <v>29197</v>
+        <v>20651</v>
       </c>
       <c r="D99">
-        <v>484418</v>
+        <v>356933</v>
       </c>
       <c r="E99">
-        <v>569586</v>
+        <v>437573</v>
       </c>
       <c r="F99">
-        <v>361740</v>
+        <v>228827</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7564,19 +7563,19 @@
         <v>99000</v>
       </c>
       <c r="B100">
-        <v>422130</v>
+        <v>267873</v>
       </c>
       <c r="C100">
-        <v>34484</v>
+        <v>21685</v>
       </c>
       <c r="D100">
-        <v>558527</v>
+        <v>376740</v>
       </c>
       <c r="E100">
-        <v>629324</v>
+        <v>451038</v>
       </c>
       <c r="F100">
-        <v>415408</v>
+        <v>238522</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -7584,19 +7583,19 @@
         <v>100000</v>
       </c>
       <c r="B101">
-        <v>349590</v>
+        <v>271827</v>
       </c>
       <c r="C101">
-        <v>27918</v>
+        <v>22844</v>
       </c>
       <c r="D101">
-        <v>469172</v>
+        <v>376510</v>
       </c>
       <c r="E101">
-        <v>541197</v>
+        <v>456346</v>
       </c>
       <c r="F101">
-        <v>345977</v>
+        <v>244729</v>
       </c>
     </row>
   </sheetData>
